--- a/report/reliability/comb/Centro de Tecnologia - CTEC-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Centro de Tecnologia - CTEC-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7774687230860231</v>
+        <v>0.7464121539187303</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7924020796039831</v>
+        <v>0.7742912123094925</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8895487977340779</v>
+        <v>0.8790285484763327</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24132281642671946</v>
+        <v>0.20878793958147873</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.817003937671366</v>
+        <v>3.4304876661302295</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.019765289276040963</v>
+        <v>0.021072780550644366</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.6672433679354093</v>
+        <v>2.0191642267766836</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.708741476898068</v>
+        <v>0.5957756983017222</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1772687724608772</v>
+        <v>0.1492196247123625</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7505979945241628</v>
+        <v>0.7481107187426812</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7610678135520139</v>
+        <v>0.7725526742149833</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8592788708439247</v>
+        <v>0.8780269935997704</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22454869852521672</v>
+        <v>0.2206082793039904</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.185287946618665</v>
+        <v>3.3966223676122747</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.022142582452123676</v>
+        <v>0.021417442900653682</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.036824777608628644</v>
+        <v>0.05213788529673345</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1760838828713706</v>
+        <v>0.16131730282850676</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7514593856537314</v>
+        <v>0.722453443060339</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7646008009844933</v>
+        <v>0.7480881187634536</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8650685429373306</v>
+        <v>0.8587536729440414</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22796739027070329</v>
+        <v>0.19837762658168545</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2481028150572664</v>
+        <v>2.9696420632935365</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02211044514320737</v>
+        <v>0.02292972319503876</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.038072493870859835</v>
+        <v>0.052939346706515095</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16171918885195258</v>
+        <v>0.13560703656209339</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7588731620709372</v>
+        <v>0.7234386847859486</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7697395119300833</v>
+        <v>0.7496546849126405</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.867492155575849</v>
+        <v>0.8594488397326394</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2330704216022135</v>
+        <v>0.19970562930067504</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.342907497426817</v>
+        <v>2.9944825795962853</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02148523328961273</v>
+        <v>0.022860525267785526</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03805410357665752</v>
+        <v>0.0524064045617057</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17818571914069622</v>
+        <v>0.14072490714300184</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.756169140559454</v>
+        <v>0.7338631695560857</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7689910243438224</v>
+        <v>0.7511963479432233</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8710466690967335</v>
+        <v>0.8575031549762206</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2323172726115382</v>
+        <v>0.20102447876854906</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.3288361292435265</v>
+        <v>3.019233607438374</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02167208987228123</v>
+        <v>0.022437814583591717</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.039060745251523296</v>
+        <v>0.039719299056747696</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17635182578105815</v>
+        <v>0.15093246317690073</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7614995264539584</v>
+        <v>0.7152089023520226</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7829237027467504</v>
+        <v>0.7495916263095702</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8506555784972907</v>
+        <v>0.855463159257889</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2469196560982378</v>
+        <v>0.1996519380595613</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.606675222736829</v>
+        <v>2.9934766767674525</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.021133073991434614</v>
+        <v>0.023515138311067493</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03462629970257256</v>
+        <v>0.03974589399116379</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18578233898960317</v>
+        <v>0.1492196247123625</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7630093327977391</v>
+        <v>0.7161979003345676</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7819787836524424</v>
+        <v>0.7489559849958312</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8500983586714536</v>
+        <v>0.8551714493413848</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24588887264610582</v>
+        <v>0.19911182717598933</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.586709572364987</v>
+        <v>2.983365227740618</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02097640774331388</v>
+        <v>0.0234271465434209</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03493300964698192</v>
+        <v>0.03979148392153666</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.17875358311737805</v>
+        <v>0.14713366442724513</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7746506953805423</v>
+        <v>0.7487408633178317</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.793305122985538</v>
+        <v>0.7803966629927823</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8851124486579154</v>
+        <v>0.8853178867909176</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25866265870105487</v>
+        <v>0.22847765436391382</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.8380492755513815</v>
+        <v>3.5536648651524523</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.020099116035992588</v>
+        <v>0.02136874703832075</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04197011877191216</v>
+        <v>0.05420083760002548</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.19722902862046152</v>
+        <v>0.16131730282850676</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7845643435784713</v>
+        <v>0.7395878085965768</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7956973911662516</v>
+        <v>0.7696985686145659</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8854565232403292</v>
+        <v>0.872293153579219</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2614822772028781</v>
+        <v>0.21784030188967254</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.894700100544247</v>
+        <v>3.3421354091646656</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.0190928666257838</v>
+        <v>0.021410936433895696</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04064827532976973</v>
+        <v>0.05472023335382548</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19722902862046152</v>
+        <v>0.15564828811599773</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7755435909583371</v>
+        <v>0.7526912890429582</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7887840994866215</v>
+        <v>0.7734343233601193</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.894088699350807</v>
+        <v>0.8749400220784733</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2534523776534076</v>
+        <v>0.22147338434923147</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.734492041410772</v>
+        <v>3.413731218385166</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.020138227504399385</v>
+        <v>0.0200628740227328</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04556253451400802</v>
+        <v>0.05417267785939771</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17818571914069622</v>
+        <v>0.15564828811599773</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7681167650729755</v>
+        <v>0.7390508152664399</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7859844445264471</v>
+        <v>0.7666152798165192</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.892693570079882</v>
+        <v>0.8813345496716266</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2503011175166589</v>
+        <v>0.21490480478285795</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.6725575521241742</v>
+        <v>3.284770653425071</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02077951734692901</v>
+        <v>0.021649251848835864</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0463015551225264</v>
+        <v>0.05895055427256279</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1760838828713706</v>
+        <v>0.14732189923873654</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7468687687568754</v>
+        <v>0.7330501376230144</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.765731648722618</v>
+        <v>0.7670642514531439</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8576224936519934</v>
+        <v>0.8808648679434115</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.22907692152021883</v>
+        <v>0.21532877870037379</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.268609031255632</v>
+        <v>3.293029327779829</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.022617642802212987</v>
+        <v>0.02216566149276784</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.040694815068994666</v>
+        <v>0.058741281140766176</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.15659097090286855</v>
+        <v>0.1492196247123625</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7504590162756469</v>
+        <v>0.7070818344091027</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7688603492206358</v>
+        <v>0.7476049405958228</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.860647501580408</v>
+        <v>0.8472486715045268</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23218613277239983</v>
+        <v>0.19797047442244253</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3263888157145143</v>
+        <v>2.9620426895862226</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.022313675099893526</v>
+        <v>0.024412044649420685</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04058269059626841</v>
+        <v>0.05319784747893952</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16091541680506094</v>
+        <v>0.13252806882678192</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7115997921438655</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7497279512712511</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.84979327647311</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.199768036860281</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.9956519518638904</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.02402884723131397</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05339839445999953</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.14072490714300184</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>289.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6406576658589795</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6911707832426347</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6883124388817468</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5572154787345894</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.6262975778546713</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0666017858007175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6240994326367924</v>
+        <v>0.2864105832678998</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6627775403599471</v>
+        <v>0.40371275709644483</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6496618650819465</v>
+        <v>0.3390188527983566</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5273690384387179</v>
+        <v>0.2667572129815616</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.141868512110727</v>
+        <v>0.972318339100346</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1831915862923998</v>
+        <v>0.1643436726886295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5640091761832122</v>
+        <v>0.560246018938293</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.620395360619751</v>
+        <v>0.6210590606793427</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6009769579471302</v>
+        <v>0.6032566695133549</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4794165982406994</v>
+        <v>0.4543996771877144</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.7404844290657437</v>
+        <v>3.6262975778546713</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9602089113326003</v>
+        <v>1.0666017858007175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5824653518550107</v>
+        <v>0.5542515799566158</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6266504850390047</v>
+        <v>0.6080753446487817</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5990572129848993</v>
+        <v>0.5898596548763988</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.47878009323555687</v>
+        <v>0.4344515805825253</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.124567474048443</v>
+        <v>4.141868512110727</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1836788975100516</v>
+        <v>1.1831915862923998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5649418357551236</v>
+        <v>0.614544857931982</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5053733849461437</v>
+        <v>0.5951811188064122</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5301608049611147</v>
+        <v>0.6278604057867407</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.42421033667111313</v>
+        <v>0.5832295264051232</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.657439446366782</v>
+        <v>0.16608996539792387</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5173607674437448</v>
+        <v>0.37280692827120676</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5741997224730919</v>
+        <v>0.6298126057721292</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5139343454230505</v>
+        <v>0.6086002771794016</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5392590109982764</v>
+        <v>0.6444828183870681</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4208816446647263</v>
+        <v>0.48768027606832576</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7162629757785467</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6527896913814981</v>
+        <v>1.5173607674437448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.408295954460424</v>
+        <v>0.6389013562180489</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.40784428612814844</v>
+        <v>0.6138808735494521</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.33128992109684374</v>
+        <v>0.65016511799</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.28226629729381797</v>
+        <v>0.48400813705233536</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.85121107266436</v>
+        <v>0.7162629757785467</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1881972750016787</v>
+        <v>1.6527896913814981</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3951526300860042</v>
+        <v>0.23508346746269765</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.38442652315946874</v>
+        <v>0.32677486408236794</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.30793466301580824</v>
+        <v>0.22843288375249446</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.22948603250126323</v>
+        <v>0.21369470066745833</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.0519031141868513</v>
+        <v>0.9688581314878892</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5186587801677327</v>
+        <v>0.17400234656175342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4798365630998437</v>
+        <v>0.4266238524803106</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4511172063814075</v>
+        <v>0.43077492512713506</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.34901195858375805</v>
+        <v>0.3675421221037902</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3165541950339188</v>
+        <v>0.2891748736733143</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6366782006920415</v>
+        <v>2.85121107266436</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5908278887988119</v>
+        <v>1.1881972750016787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4666293977578664</v>
+        <v>0.4062773367158549</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.47728935090639024</v>
+        <v>0.39525473356727486</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3791533781758982</v>
+        <v>0.32597273818666156</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.352488440195556</v>
+        <v>0.2241826712423229</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.6955017301038064</v>
+        <v>3.0519031141868513</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.135298774076942</v>
+        <v>1.5186587801677327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6579205547082002</v>
+        <v>0.5081503678414522</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6535625562084748</v>
+        <v>0.45947491218168923</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.650199953346528</v>
+        <v>0.36251404803692144</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5568254281321329</v>
+        <v>0.3316265498766895</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.480968858131488</v>
+        <v>1.6366782006920415</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3019020923458855</v>
+        <v>1.5908278887988119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>289.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6303338266691086</v>
+        <v>0.4738325610353745</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6277396400671432</v>
+        <v>0.4553297723633171</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6208458402987246</v>
+        <v>0.3609687284605082</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5251457596510142</v>
+        <v>0.34833980088437605</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.6955017301038064</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.135298774076942</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>289.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6681710519503722</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6250397362768007</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6248525247863264</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5578408911206298</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.480968858131488</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3019020923458855</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>289.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.639603640546477</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6074651937654308</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6042233314338956</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5244484224527998</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.283737024221453</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2865942931041077</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.02768166089965398</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04498269896193772</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0034602076124567475</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.2664359861591695</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5121107266435986</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.1453287197231834</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.02768166089965398</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05190311418685121</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2041522491349481</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15570934256055363</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5605536332179931</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.010380622837370242</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03806228373702422</v>
+        <v>0.972318339100346</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01384083044982699</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2491349480968858</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5155709342560554</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.17301038062283736</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.010380622837370242</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.01730103806228374</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05536332179930796</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.2698961937716263</v>
+        <v>0.2664359861591695</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.04844290657439446</v>
+        <v>0.5121107266435986</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5986159169550173</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8339100346020761</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.006920415224913495</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.05190311418685121</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.02422145328719723</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09688581314878893</v>
+        <v>0.15570934256055363</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03806228373702422</v>
+        <v>0.5605536332179931</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8339100346020761</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0034602076124567475</v>
+        <v>0.16608996539792387</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.0034602076124567475</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02422145328719723</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.04152249134948097</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09342560553633218</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.031141868512110725</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.18339100346020762</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02768166089965398</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4429065743944637</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2906574394463668</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02422145328719723</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.031141868512110725</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15916955017301038</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.23529411764705882</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10034602076124567</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.2491349480968858</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.22491349480968859</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4083044982698962</v>
+        <v>0.031141868512110725</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11072664359861592</v>
+        <v>0.9688581314878892</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08996539792387544</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2179930795847751</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.17301038062283736</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.09688581314878893</v>
+        <v>0.031141868512110725</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.05536332179930796</v>
+        <v>0.18339100346020762</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.09342560553633218</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5640138408304498</v>
+        <v>0.4429065743944637</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1903114186851211</v>
+        <v>0.2906574394463668</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.1314878892733564</v>
+        <v>0.031141868512110725</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.058823529411764705</v>
+        <v>0.15916955017301038</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.27335640138408307</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2698961937716263</v>
+        <v>0.10034602076124567</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2664359861591695</v>
+        <v>0.2491349480968858</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.22491349480968859</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1522491349480969</v>
+        <v>0.4083044982698962</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.058823529411764705</v>
+        <v>0.11072664359861592</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3494809688581315</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.23183391003460208</v>
+        <v>0.2179930795847751</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.20761245674740483</v>
+        <v>0.17301038062283736</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.09688581314878893</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.05536332179930796</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09342560553633218</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5640138408304498</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1903114186851211</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.1314878892733564</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.27335640138408307</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2698961937716263</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2664359861591695</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1522491349480969</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3494809688581315</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.23183391003460208</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.20761245674740483</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8647308162528964</v>
+        <v>0.8739771438541394</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8680545756015954</v>
+        <v>0.9917300424598835</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8764896971811055</v>
+        <v>0.9879767118753283</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6218885354043198</v>
+        <v>0.9755938037923565</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.578891079849311</v>
+        <v>119.91960510669267</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01317728305540663</v>
+        <v>0.00145638182191596</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.9083044982698962</v>
+        <v>0.5132641291810842</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9297271650346173</v>
+        <v>1.1735564398086606</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6383836347510712</v>
+        <v>0.9727371162544852</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8085285848172444</v>
+        <v>0.9888409987113089</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.813071133917987</v>
+        <v>0.9906658096151737</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7581587458115743</v>
+        <v>0.9815042619704235</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5918161064881743</v>
+        <v>0.9815042619704235</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.349628556358227</v>
+        <v>106.13301944490156</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.019245501737041273</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.009828662881609319</v>
-      </c>
+        <v>0.001198481557590397</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.602189331130523</v>
+        <v>0.9815042619704236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8290463042620793</v>
+        <v>0.5891446319543678</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8361329403945382</v>
+        <v>0.986180173972051</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7855345692763046</v>
+        <v>0.9727371162544851</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6297442600115261</v>
+        <v>0.9727371162544851</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.102507742603504</v>
+        <v>71.35981104086346</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.017614948867159027</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007596822870738653</v>
-      </c>
+        <v>0.0052959332510231225</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6745779383716193</v>
+        <v>0.9727371162544852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8331796472633481</v>
+        <v>0.6213447316642922</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8350070045940667</v>
+        <v>0.9860788798268605</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7892992104746044</v>
+        <v>0.9725400331521601</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6278314285734331</v>
+        <v>0.9725400331521601</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.060863356893998</v>
+        <v>70.83329987549953</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01722411542783481</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01289393976471762</v>
-      </c>
+        <v>0.00538221609561813</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.602189331130523</v>
+        <v>0.9725400331521601</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8387660248068757</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8410430398815605</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8113757570225035</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6381623465441456</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.291011096682373</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.016442351830644332</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01843357374464368</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6745779383716193</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>289.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9816971103886077</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.989844857933639</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.980586097045243</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9771633341640621</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.16608996539792387</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.37280692827120676</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>289.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8687023536475373</v>
+        <v>0.9947399878573939</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8730607672137253</v>
+        <v>0.9927913086971689</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8394941119834265</v>
+        <v>0.9884128281520522</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.761473049448958</v>
+        <v>0.9838909252346881</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6262975778546713</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0666017858007175</v>
+        <v>1.5173607674437448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>289.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8514785111120146</v>
+        <v>0.9954723292421829</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8394529579602381</v>
+        <v>0.9928575441261375</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7879476278120016</v>
+        <v>0.9885530838139214</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7130535611292115</v>
+        <v>0.9840629517314206</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.141868512110727</v>
+        <v>0.7162629757785467</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1831915862923998</v>
+        <v>1.6527896913814981</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>289.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8250374970791416</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8411479013765034</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7843810018562845</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.708207319829341</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.7404844290657437</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9602089113326003</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>289.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8386384291900738</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.831993764190274</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7578626556152814</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6907687094210548</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.124567474048443</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1836788975100516</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8339100346020761</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.16608996539792387</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8339100346020761</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.006920415224913495</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.02422145328719723</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09688581314878893</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03806228373702422</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02768166089965398</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04498269896193772</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.0034602076124567475</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2664359861591695</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5121107266435986</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1453287197231834</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02768166089965398</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05190311418685121</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2041522491349481</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15570934256055363</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5605536332179931</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.010380622837370242</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03806228373702422</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01384083044982699</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2491349480968858</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5155709342560554</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.17301038062283736</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.010380622837370242</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01730103806228374</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05536332179930796</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.2698961937716263</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.04844290657439446</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5986159169550173</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7246689771982675</v>
+        <v>0.5975041558832264</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7385001774128459</v>
+        <v>0.7180137996538556</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.5854144124240057</v>
+        <v>0.6453383633093868</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.5854144124240055</v>
+        <v>0.45909620869014595</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>2.8240943726327568</v>
+        <v>2.54627282743793</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.030976576148959312</v>
+        <v>0.022970959994216732</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.9515570934256057</v>
+        <v>2.290657439446367</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2073585138352283</v>
+        <v>0.8320042586034736</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.5854144124240054</v>
+        <v>0.43095878035272944</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.5854144124240055</v>
+        <v>0.7246689771982675</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.5854144124240055</v>
+        <v>0.7385001774128459</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.3427100342737439</v>
+        <v>0.5854144124240057</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.5854144124240055</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5854144124240055</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>2.8240943726327568</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.030976576148959312</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.5854144124240055</v>
+        <v>0.5854144124240054</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.3427100342737439</v>
+        <v>0.1509441137880545</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.5854144124240055</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3427100342737439</v>
-      </c>
+        <v>0.5304009704999979</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.3609154332937027</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.36091543329370257</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.1294762918584689</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.021140958812712586</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.5854144124240055</v>
+        <v>0.3609154332937027</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2199614414948836</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6023357014469679</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.4309587803527294</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.4309587803527295</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.5146838769250015</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.023927942864042283</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.43095878035272944</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>289.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8602424170877283</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8903410617353343</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6812211266166622</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5854144124240054</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.85121107266436</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.1881972750016787</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>289.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9169797389853124</v>
+        <v>0.49445812082581087</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8903410617353344</v>
+        <v>0.7469659537620672</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6812211266166622</v>
+        <v>0.5166105960154863</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.5854144124240054</v>
+        <v>0.4390458293763139</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9688581314878892</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.17400234656175342</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>289.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8622671616014047</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8405512583485005</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7340456889382941</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6064003217880274</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.85121107266436</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.1881972750016787</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>289.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.912273664673361</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8113527827288515</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6764268646362992</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.5957924656273387</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.0519031141868513</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5186587801677327</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.031141868512110725</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9688581314878892</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.031141868512110725</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.18339100346020762</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02768166089965398</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4429065743944637</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2906574394463668</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.02422145328719723</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.031141868512110725</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15916955017301038</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.23529411764705882</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10034602076124567</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.2491349480968858</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.22491349480968859</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9146469148103893</v>
+        <v>0.7139946385962157</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9146816329308254</v>
+        <v>0.8417863109749324</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8427772538309273</v>
+        <v>0.7928425857220175</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8427772538309273</v>
+        <v>0.6394475874709994</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>10.720805664145178</v>
+        <v>5.320565598097887</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01003911591973136</v>
+        <v>0.012513670753940128</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.3823529411764706</v>
+        <v>2.9134948096885815</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2423376263229644</v>
+        <v>0.7374297236290656</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8427772538309272</v>
+        <v>0.5916784420954223</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8427772538309273</v>
+        <v>0.8558241329620682</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8427772538309273</v>
+        <v>0.8584548937084595</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.7102734995747992</v>
+        <v>0.75201136510257</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8427772538309273</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8427772538309273</v>
-      </c>
+        <v>0.7520113651025699</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.064885718763744</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.016754899906414607</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8427772538309273</v>
+        <v>0.7520113651025699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.7102734995747992</v>
+        <v>0.2777262180974476</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8427772538309273</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7102734995747992</v>
-      </c>
+        <v>0.7434647934497196</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5916784420954224</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5916784420954224</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.898100434039264</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.018917422354176035</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8427772538309273</v>
+        <v>0.5916784420954223</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2949412509674241</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7298788641800016</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5746529552150057</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5746529552150057</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.70204277782385</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.020747116295120098</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5746529552150057</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>289.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9603727871244462</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9598899035386629</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8812067729556232</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8427772538309272</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.480968858131488</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3019020923458855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>289.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9594041558185907</v>
+        <v>0.667787247189776</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9598899035386629</v>
+        <v>0.8285182750672881</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8812067729556232</v>
+        <v>0.6679620992621822</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.842777253830927</v>
+        <v>0.623425253704444</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.283737024221453</v>
+        <v>0.972318339100346</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2865942931041077</v>
+        <v>0.1643436726886295</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>289.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9270107678307299</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8898379591060747</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8238502470100256</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7645768113490541</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.6262975778546713</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0666017858007175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>289.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9413447784688685</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8963493945401253</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8363662184584556</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7694473727876485</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.141868512110727</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1831915862923998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1314878892733564</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.27335640138408307</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2698961937716263</v>
-      </c>
-      <c r="F23" t="n" s="458">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.02768166089965398</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.972318339100346</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.02768166089965398</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04498269896193772</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0034602076124567475</v>
+      </c>
+      <c r="E26" t="n" s="457">
         <v>0.2664359861591695</v>
       </c>
-      <c r="G23" t="n" s="459">
+      <c r="F26" t="n" s="458">
+        <v>0.5121107266435986</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.1453287197231834</v>
+      </c>
+      <c r="H26" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1522491349480969</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3494809688581315</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.23183391003460208</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.20761245674740483</v>
-      </c>
-      <c r="G24" t="n" s="459">
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.02768166089965398</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05190311418685121</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2041522491349481</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.15570934256055363</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.5605536332179931</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9888409987113089</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9906658096151737</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>106.13301944490156</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.001198481557590397</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6868512110726643</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5777423596644133</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9815042619704236</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5014000056565884</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5226764416472713</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3537995713207708</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.095014969407875</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.055057318072590795</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.1660899653979238</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1288940040737567</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.35379957132077094</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9633506162661057</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9815042619704235</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.1251741366667608</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.3537995713207709</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9633506162661057</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9815042619704235</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9633506162661057</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9815042619704235</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.1251741366667608</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.3537995713207709</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.1251741366667608</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.3537995713207709</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>289.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.994959942110972</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9953653253882274</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.986117355652087</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9815042619704234</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.657439446366782</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5173607674437448</v>
+      <c r="C17" t="n" s="545">
+        <v>0.882499198861034</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8227391966233197</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.48937394086093894</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.35379957132077083</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.6366782006920415</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5908278887988119</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>289.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9957537529266088</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9953653253882273</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9861173556520869</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9815042619704234</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7162629757785467</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6527896913814981</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7521224282577288</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8227391966233197</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.4893739408609393</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.35379957132077083</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.6955017301038064</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.135298774076942</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8339100346020761</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.006920415224913495</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4083044982698962</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.11072664359861592</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08996539792387544</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2179930795847751</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.17301038062283736</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.02422145328719723</v>
-      </c>
-      <c r="F23" t="n" s="572">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
         <v>0.09688581314878893</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03806228373702422</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8339100346020761</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0034602076124567475</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0034602076124567475</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.02422145328719723</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.04152249134948097</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="C24" t="n" s="570">
+        <v>0.05536332179930796</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.09342560553633218</v>
       </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.5640138408304498</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1903114186851211</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5014000056565884</v>
+        <v>0.9146469148103893</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5226764416472713</v>
+        <v>0.9146816329308254</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3537995713207708</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.095014969407875</v>
+        <v>10.720805664145178</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.055057318072590795</v>
+        <v>0.01003911591973136</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.1660899653979238</v>
+        <v>2.3823529411764706</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1288940040737567</v>
+        <v>1.2423376263229644</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.35379957132077094</v>
+        <v>0.8427772538309272</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1251741366667608</v>
+        <v>0.7102734995747992</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1251741366667608</v>
+        <v>0.7102734995747992</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1251741366667608</v>
+        <v>0.7102734995747992</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.3537995713207709</v>
+        <v>0.8427772538309273</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>289.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.882499198861034</v>
+        <v>0.9603727871244462</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8227391966233197</v>
+        <v>0.9598899035386629</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.48937394086093894</v>
+        <v>0.8812067729556232</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.35379957132077083</v>
+        <v>0.8427772538309272</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.6366782006920415</v>
+        <v>2.480968858131488</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5908278887988119</v>
+        <v>1.3019020923458855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>289.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7521224282577288</v>
+        <v>0.9594041558185907</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8227391966233197</v>
+        <v>0.9598899035386629</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.4893739408609393</v>
+        <v>0.8812067729556232</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.35379957132077083</v>
+        <v>0.842777253830927</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.6955017301038064</v>
+        <v>2.283737024221453</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.135298774076942</v>
+        <v>1.2865942931041077</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4083044982698962</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.11072664359861592</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.08996539792387544</v>
+        <v>0.27335640138408307</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2179930795847751</v>
+        <v>0.2698961937716263</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.17301038062283736</v>
+        <v>0.2664359861591695</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.09688581314878893</v>
+        <v>0.1522491349480969</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.05536332179930796</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.09342560553633218</v>
+        <v>0.3494809688581315</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5640138408304498</v>
+        <v>0.23183391003460208</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1903114186851211</v>
+        <v>0.20761245674740483</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.793534141411377</v>
+        <v>0.76726904455375</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8069650899259327</v>
+        <v>0.8004081139000008</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9007582337529878</v>
+        <v>0.8986256768163291</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2948017778439297</v>
+        <v>0.28623552291434956</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.1804101113954015</v>
+        <v>4.01022370969019</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.018669958178476307</v>
+        <v>0.01957442591711399</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.6103806228373703</v>
+        <v>1.9377162629757785</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7726866417182896</v>
+        <v>0.6940693527566147</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.24054459948452236</v>
+        <v>0.22830718455213425</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7658958911234397</v>
+        <v>0.7538411637264669</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7741438931807824</v>
+        <v>0.77213306895069</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8684273033823162</v>
+        <v>0.8744561972505389</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2758053366232514</v>
+        <v>0.27352133375555354</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.427597792608864</v>
+        <v>3.3885262130624887</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.021099622694938376</v>
+        <v>0.021288601059158137</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.041000190343304994</v>
+        <v>0.046627791966390254</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.23719243116143948</v>
+        <v>0.23308091180647497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7658231869919176</v>
+        <v>0.7282672706224966</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7767368129047209</v>
+        <v>0.7708822227833969</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8748557608397102</v>
+        <v>0.8725677393642484</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.27878944778199394</v>
+        <v>0.27211364141423483</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.4790187446945424</v>
+        <v>3.3645674820536575</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02114980587287304</v>
+        <v>0.022646615055516538</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04317505930517173</v>
+        <v>0.04642778649938378</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2400375764021144</v>
+        <v>0.22980734958095583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7755924182119363</v>
+        <v>0.7303742801306721</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7846777210030176</v>
+        <v>0.7700539960646849</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8775821888282824</v>
+        <v>0.8721163103890335</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2882112667276976</v>
+        <v>0.2711870212395103</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.6442012626757236</v>
+        <v>3.348847046201788</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02037413175527046</v>
+        <v>0.02245581666048551</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.041659978972015246</v>
+        <v>0.04663678103992374</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2400375764021144</v>
+        <v>0.22980734958095583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7743195727209344</v>
+        <v>0.7724012318811241</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7848709116601478</v>
+        <v>0.8012583850582998</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8827636211224721</v>
+        <v>0.900465410368286</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.28844596748952417</v>
+        <v>0.3093741845648231</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.6483718576459587</v>
+        <v>4.031658821396537</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.020393506342831012</v>
+        <v>0.020019449628100528</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.042880838569967855</v>
+        <v>0.06377307836089025</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2400375764021144</v>
+        <v>0.23462972027654766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7651853451034669</v>
+        <v>0.7450444325784686</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7825780147127746</v>
+        <v>0.7766682450049817</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8669798855775288</v>
+        <v>0.8801948670547926</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2856774857988251</v>
+        <v>0.27870996322747305</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.5993508829337095</v>
+        <v>3.4776435846407336</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.021345735605116094</v>
+        <v>0.021165886620531992</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04536194901206416</v>
+        <v>0.06734370042770685</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2058041186642759</v>
+        <v>0.21276810658629788</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7678385069859409</v>
+        <v>0.7447014443390065</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7850727776693388</v>
+        <v>0.7756311295049363</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8698477785072755</v>
+        <v>0.8790150793619707</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2886914926548845</v>
+        <v>0.27751153401483986</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6527377460893264</v>
+        <v>3.456946267962788</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02114281446808531</v>
+        <v>0.02115746323637891</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04511985573804171</v>
+        <v>0.06732705799961047</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.22284336165893381</v>
+        <v>0.22134319663011226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7753516509534187</v>
+        <v>0.768151366773739</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7972106773054773</v>
+        <v>0.799989443201534</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8548732703818809</v>
+        <v>0.9076675169735974</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30401031322198646</v>
+        <v>0.30767825323963055</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.9312260956972445</v>
+        <v>3.9997360939683637</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.020231318749278936</v>
+        <v>0.019307019782563137</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03657172905856738</v>
+        <v>0.07365116756259821</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.248661104809643</v>
+        <v>0.23285632307985005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7779908314523072</v>
+        <v>0.7609576788967726</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7964290876436149</v>
+        <v>0.8011288113011337</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8543120680779812</v>
+        <v>0.907242672500004</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30298980284496635</v>
+        <v>0.30920040098334395</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.912293158313952</v>
+        <v>4.028380463467812</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.01995703346630872</v>
+        <v>0.02010710822976686</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03688646485200525</v>
+        <v>0.07309121671261236</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.24637304184936287</v>
+        <v>0.2313561580510285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7981662117239295</v>
+        <v>0.7302615331896272</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8079339940622152</v>
+        <v>0.7779979672779694</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.909644500325307</v>
+        <v>0.86555812604144</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.31851963744607065</v>
+        <v>0.28025699200341303</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.206543423014305</v>
+        <v>3.5044632598121446</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01851597722089327</v>
+        <v>0.022538833004982866</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04979138350016563</v>
+        <v>0.06736723855701586</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24637304184936287</v>
+        <v>0.18779823775115217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.789693378495432</v>
+        <v>0.733752960628372</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8067553501611178</v>
+        <v>0.7801634546601277</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9088792077011314</v>
+        <v>0.8681742972201599</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3168770278500965</v>
+        <v>0.28280190470067323</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.174787508134119</v>
+        <v>3.5488342188691924</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.019343102986534508</v>
+        <v>0.022288187139245377</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05028970690454301</v>
+        <v>0.06727340220604301</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.24453768423537092</v>
+        <v>0.18779823775115217</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6640735392140568</v>
+        <v>0.685572417700625</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7175638427938585</v>
+        <v>0.6745460805592642</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7070583327570725</v>
+        <v>0.7037690762278677</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5754196885564721</v>
+        <v>0.6554765876276857</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.6262975778546713</v>
+        <v>0.16608996539792387</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0666017858007175</v>
+        <v>0.37280692827120676</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6584669666692179</v>
+        <v>0.6994004222004417</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6997900619099449</v>
+        <v>0.6830203881727809</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6788913235207522</v>
+        <v>0.7152312649909347</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5574466541703204</v>
+        <v>0.5581479116349073</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.141868512110727</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1831915862923998</v>
+        <v>1.5173607674437448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5830175607923291</v>
+        <v>0.705833167142661</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6436723985386475</v>
+        <v>0.6885986414395063</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6163155058675099</v>
+        <v>0.721193969992317</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.4916774107786274</v>
+        <v>0.5509843955052347</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.7404844290657437</v>
+        <v>0.7162629757785467</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9602089113326003</v>
+        <v>1.6527896913814981</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5934747485763355</v>
+        <v>0.31663377352511796</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.642274488175365</v>
+        <v>0.4587119258499803</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6048655331109182</v>
+        <v>0.38023946652950635</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4799222141075094</v>
+        <v>0.29509292545943167</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.124567474048443</v>
+        <v>0.972318339100346</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1836788975100516</v>
+        <v>0.1643436726886295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6632575525799153</v>
+        <v>0.5767842121774612</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6587639499728764</v>
+        <v>0.6433105321748697</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6468447668847699</v>
+        <v>0.611012207626449</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5514857327251441</v>
+        <v>0.45991839230606185</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.480968858131488</v>
+        <v>3.6262975778546713</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3019020923458855</v>
+        <v>1.0666017858007175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6449246117923639</v>
+        <v>0.5854016309766467</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6408121061599311</v>
+        <v>0.6505250757955048</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6261117827263349</v>
+        <v>0.6203477639640318</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5306061749728375</v>
+        <v>0.455589792575115</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.283737024221453</v>
+        <v>4.141868512110727</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2865942931041077</v>
+        <v>1.1831915862923998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6187443445324745</v>
+        <v>0.5291305886721678</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.549571081387115</v>
+        <v>0.4689214320888338</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5728492586200016</v>
+        <v>0.3500310379479768</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.47354206754135086</v>
+        <v>0.33325751420746375</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.657439446366782</v>
+        <v>1.6366782006920415</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5173607674437448</v>
+        <v>1.5908278887988119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6252046706610477</v>
+        <v>0.46805491591676823</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5556493830541881</v>
+        <v>0.45975810297576686</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.579287405916606</v>
+        <v>0.34294578774589757</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4662204804884928</v>
+        <v>0.3257608241892284</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.7162629757785467</v>
+        <v>2.6955017301038064</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6527896913814981</v>
+        <v>1.135298774076942</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4965637277908682</v>
+        <v>0.6757515716792375</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4631515293617118</v>
+        <v>0.6339974192527693</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.34609777986955687</v>
+        <v>0.6210046753033582</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3175524507172875</v>
+        <v>0.5521579894921469</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.6366782006920415</v>
+        <v>2.480968858131488</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5908278887988119</v>
+        <v>1.3019020923458855</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>289.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4595964187236653</v>
+        <v>0.6563782181675891</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.4729351404551277</v>
+        <v>0.6186770453236738</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.35810959874382486</v>
+        <v>0.6030808877178344</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.33207465155134425</v>
+        <v>0.529585328379513</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.6955017301038064</v>
+        <v>2.283737024221453</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.135298774076942</v>
+        <v>1.2865942931041077</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.02768166089965398</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.04498269896193772</v>
+        <v>0.16608996539792387</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.0034602076124567475</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.2664359861591695</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5121107266435986</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.1453287197231834</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.02768166089965398</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C40" t="n" s="798">
+        <v>0.006920415224913495</v>
+      </c>
+      <c r="D40" t="n" s="799">
         <v>0.0</v>
       </c>
-      <c r="D40" t="n" s="799">
-        <v>0.05190311418685121</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.2041522491349481</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.15570934256055363</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5605536332179931</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.010380622837370242</v>
+        <v>0.8339100346020761</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.03806228373702422</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.01384083044982699</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.2491349480968858</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5155709342560554</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.17301038062283736</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.010380622837370242</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.01730103806228374</v>
+        <v>0.972318339100346</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05536332179930796</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.2698961937716263</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.04844290657439446</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5986159169550173</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1314878892733564</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.058823529411764705</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.27335640138408307</v>
+        <v>0.0034602076124567475</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2698961937716263</v>
+        <v>0.2664359861591695</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.2664359861591695</v>
+        <v>0.5121107266435986</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1522491349480969</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.058823529411764705</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3494809688581315</v>
+        <v>0.05190311418685121</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.23183391003460208</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.20761245674740483</v>
+        <v>0.15570934256055363</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5605536332179931</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8339100346020761</v>
+        <v>0.4083044982698962</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.006920415224913495</v>
+        <v>0.11072664359861592</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.08996539792387544</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.2179930795847751</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.17301038062283736</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.02422145328719723</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.09688581314878893</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.03806228373702422</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8339100346020761</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0034602076124567475</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.0034602076124567475</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.02422145328719723</v>
+        <v>0.5640138408304498</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.04152249134948097</v>
+        <v>0.1903114186851211</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.09342560553633218</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4083044982698962</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.11072664359861592</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.08996539792387544</v>
+        <v>0.27335640138408307</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2179930795847751</v>
+        <v>0.2698961937716263</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.17301038062283736</v>
+        <v>0.2664359861591695</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.09688581314878893</v>
+        <v>0.1522491349480969</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.05536332179930796</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.09342560553633218</v>
+        <v>0.3494809688581315</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5640138408304498</v>
+        <v>0.23183391003460208</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1903114186851211</v>
+        <v>0.20761245674740483</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
